--- a/data/processed/state_overviews/idaho_overview.xlsx
+++ b/data/processed/state_overviews/idaho_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>477</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Ada County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>161</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bannock County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>21</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Benewah County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Bingham County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Blaine County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Boise County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Bonner County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>17</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Bonneville County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>22</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Boundary County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Butte County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Camas County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Canyon County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>29</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Caribou County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Cassia County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Clearwater County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Elmore County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>4</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Fremont County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Gem County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Gooding County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Idaho County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>4</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Jerome County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Kootenai County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>41</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Latah County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Lemhi County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>10</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Lewis County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Minidoka County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Nez Perce County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>12</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Oneida County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Owyhee County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Payette County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Shoshone County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>3</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Teton County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>12</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Twin Falls County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>22</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Valley County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>5</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>3</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,27 +1746,29 @@
           <t>Power County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1694,27 +1778,61 @@
           <t>Bear Lake County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$643,142,727</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.56%</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-11.31%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>62.05%</t>
         </is>
       </c>
     </row>
@@ -1769,8 +1887,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>194</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1799,8 +1919,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>283</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1829,8 +1951,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>477</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1904,8 +2028,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>183</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1934,8 +2060,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>138</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1964,8 +2092,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>79</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1994,8 +2124,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>27</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2024,8 +2156,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>37</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2054,8 +2188,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>13</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2084,8 +2220,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>477</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2159,8 +2297,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>36</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2189,8 +2329,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>93</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2219,8 +2361,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>41</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2249,8 +2393,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>36</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2279,8 +2425,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2309,8 +2457,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>124</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2339,8 +2489,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2369,8 +2521,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>31</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2399,8 +2553,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>11</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2429,8 +2585,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>88</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2459,8 +2617,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2489,8 +2649,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>477</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/idaho_overview.xlsx
+++ b/data/processed/state_overviews/idaho_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,519 +431,519 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ada County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$239,933,201</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.49%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.49%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>477</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,432,868</t>
+          <t>$643,142,727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.47%</t>
+          <t>12.56%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-28.92%</t>
+          <t>-11.31%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>62.05%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bannock County</t>
+          <t>Ada County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$26,436,084</t>
+          <t>$239,933,201</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>11.35%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.13%</t>
+          <t>-11.49%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>61.49%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Benewah County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$4,454,019</t>
+          <t>$2,432,868</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.33%</t>
+          <t>15.47%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>-28.92%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bingham County</t>
+          <t>Bannock County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$14,080,214</t>
+          <t>$26,436,084</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.37%</t>
+          <t>13.43%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-56.73%</t>
+          <t>-14.13%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blaine County</t>
+          <t>Benewah County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$5,902,321</t>
+          <t>$4,454,019</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.76%</t>
+          <t>24.33%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boise County</t>
+          <t>Bingham County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$48,005</t>
+          <t>$14,080,214</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-3.82%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-102.43%</t>
+          <t>-56.73%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bonner County</t>
+          <t>Blaine County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$21,648,929</t>
+          <t>$5,902,321</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.75%</t>
+          <t>24.76%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.54%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bonneville County</t>
+          <t>Boise County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$25,986,517</t>
+          <t>$48,005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>-3.82%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-38.78%</t>
+          <t>-102.43%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boundary County</t>
+          <t>Bonner County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$554,835</t>
+          <t>$21,648,929</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.50%</t>
+          <t>20.75%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.27%</t>
+          <t>-8.54%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>52.94%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Butte County</t>
+          <t>Bonneville County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$9,128</t>
+          <t>$25,986,517</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.54%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20.10%</t>
+          <t>-38.78%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Camas County</t>
+          <t>Boundary County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$16,336</t>
+          <t>$554,835</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.54%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17.58%</t>
+          <t>-13.27%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Canyon County</t>
+          <t>Butte County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$115,148,306</t>
+          <t>$9,128</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.58%</t>
+          <t>23.54%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-40.46%</t>
+          <t>20.10%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>65.52%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Caribou County</t>
+          <t>Camas County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$18,547,774</t>
+          <t>$16,336</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>57.90%</t>
+          <t>23.54%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>17.58%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cassia County</t>
+          <t>Canyon County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$17,395</t>
+          <t>$115,148,306</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17.54%</t>
+          <t>13.58%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.72%</t>
+          <t>-40.46%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>65.52%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clearwater County</t>
+          <t>Caribou County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -953,49 +953,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$3,138,823</t>
+          <t>$18,547,774</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-7.30%</t>
+          <t>57.90%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-66.65%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Cassia County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$11,887</t>
+          <t>$17,395</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.69%</t>
+          <t>17.54%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.31%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1007,39 +1007,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Elmore County</t>
+          <t>Clearwater County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$5,465,733</t>
+          <t>$3,138,823</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23.17%</t>
+          <t>-7.30%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-8.16%</t>
+          <t>-66.65%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1049,81 +1049,81 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$2,319,133</t>
+          <t>$11,887</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-20.92%</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-90.34%</t>
+          <t>21.31%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fremont County</t>
+          <t>Elmore County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$5,751,117</t>
+          <t>$5,465,733</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.10%</t>
+          <t>23.17%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-21.48%</t>
+          <t>-8.16%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gem County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$3,039,061</t>
+          <t>$2,319,133</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.67%</t>
+          <t>-20.92%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-9.84%</t>
+          <t>-90.34%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1135,347 +1135,347 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gooding County</t>
+          <t>Fremont County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,511,808</t>
+          <t>$5,751,117</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20.81%</t>
+          <t>1.10%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-40.32%</t>
+          <t>-21.48%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Idaho County</t>
+          <t>Gem County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2,690,257</t>
+          <t>$3,039,061</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.43%</t>
+          <t>9.67%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14.81%</t>
+          <t>-9.84%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Gooding County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$1,148,061</t>
+          <t>$2,511,808</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>45.80%</t>
+          <t>20.81%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-46.60%</t>
+          <t>-40.32%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jerome County</t>
+          <t>Idaho County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2,484,384</t>
+          <t>$2,690,257</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>20.43%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-9.64%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kootenai County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$37,541,280</t>
+          <t>$1,148,061</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14.97%</t>
+          <t>45.80%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-17.84%</t>
+          <t>-46.60%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>63.41%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Latah County</t>
+          <t>Jerome County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$30,579,354</t>
+          <t>$2,484,384</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.52%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-0.32%</t>
+          <t>-9.64%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>51.85%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lemhi County</t>
+          <t>Kootenai County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$2,572,303</t>
+          <t>$37,541,280</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.70%</t>
+          <t>14.97%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-16.00%</t>
+          <t>-17.84%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>63.41%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lewis County</t>
+          <t>Latah County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$177,499</t>
+          <t>$30,579,354</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-45.23%</t>
+          <t>10.52%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-113.23%</t>
+          <t>-0.32%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>51.85%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lemhi County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$620,913</t>
+          <t>$2,572,303</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>16.70%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-38.52%</t>
+          <t>-16.00%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Minidoka County</t>
+          <t>Lewis County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$139,154</t>
+          <t>$177,499</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16.56%</t>
+          <t>-45.23%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>-113.23%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nez Perce County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$18,290,670</t>
+          <t>$620,913</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.46%</t>
+          <t>1.13%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>-38.52%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1487,91 +1487,91 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Oneida County</t>
+          <t>Minidoka County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$338,969</t>
+          <t>$139,154</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>16.56%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-51.02%</t>
+          <t>-1.92%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Owyhee County</t>
+          <t>Nez Perce County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$657,006</t>
+          <t>$18,290,670</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>10.46%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-21.71%</t>
+          <t>1.13%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Payette County</t>
+          <t>Oneida County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$25,740,152</t>
+          <t>$338,969</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>8.42%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-63.38%</t>
+          <t>-51.02%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1583,256 +1583,224 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Shoshone County</t>
+          <t>Owyhee County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$248,206</t>
+          <t>$657,006</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17.28%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>-21.71%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Teton County</t>
+          <t>Payette County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$2,856,110</t>
+          <t>$25,740,152</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>34.44%</t>
+          <t>1.65%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12.94%</t>
+          <t>-63.38%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Twin Falls County</t>
+          <t>Shoshone County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$18,343,238</t>
+          <t>$248,206</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.44%</t>
+          <t>17.28%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-39.22%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>95.45%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Valley County</t>
+          <t>Teton County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$169,654</t>
+          <t>$2,856,110</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>34.44%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>12.94%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Twin Falls County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$1,092,023</t>
+          <t>$18,343,238</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-65.92%</t>
+          <t>-39.22%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>95.45%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Power County</t>
+          <t>Valley County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$169,654</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4.29%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bear Lake County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1,092,023</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.24%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-65.92%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>$643,142,727</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>12.56%</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>62.05%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1852,128 +1820,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$327,486,230</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.92%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-14.83%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.40%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>477</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$315,656,497</t>
+          <t>$643,142,727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.07%</t>
+          <t>12.56%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-8.33%</t>
+          <t>-11.31%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.13%</t>
+          <t>62.05%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$643,142,727</t>
+          <t>$327,486,230</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.56%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.31%</t>
+          <t>-14.83%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.05%</t>
+          <t>63.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$315,656,497</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-8.33%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>61.13%</t>
         </is>
       </c>
     </row>
@@ -1998,34 +1998,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2057,128 +2057,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$201,543,740</t>
+          <t>$274,646,683</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.71%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-40.12%</t>
+          <t>-7.27%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.19%</t>
+          <t>64.86%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$22,523,999</t>
+          <t>$201,543,740</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>10.71%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.11%</t>
+          <t>-40.12%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.03%</t>
+          <t>73.19%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$125,589,789</t>
+          <t>$22,523,999</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-67.22%</t>
+          <t>-11.11%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>62.03%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$274,646,683</t>
+          <t>$125,589,789</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.27%</t>
+          <t>-67.22%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2267,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2390,7 +2390,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2454,7 +2454,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2550,7 +2550,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2582,64 +2582,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$186,868,818</t>
+          <t>$31,585,411</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>-0.80%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-17.38%</t>
+          <t>-14.74%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.32%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$31,585,411</t>
+          <t>$186,868,818</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.80%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.74%</t>
+          <t>-17.38%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>69.32%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/idaho_overview.xlsx
+++ b/data/processed/state_overviews/idaho_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$643,142,727</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$643,142,727</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>61.49%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>161</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$239,933,201</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.35%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.49%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>61.49%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$2,432,868</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>15.47%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-28.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$26,436,084</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>13.43%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-14.13%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$4,454,019</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.33%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.16%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$14,080,214</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.37%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-56.73%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$5,902,321</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>24.76%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>10.08%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$48,005</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>-3.82%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-102.43%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>52.94%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$21,648,929</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>20.75%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-8.54%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>52.94%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$25,986,517</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>8.89%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-38.78%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$554,835</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.50%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-13.27%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$9,128</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>23.54%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>20.10%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$16,336</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>23.54%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>17.58%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>65.52%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$115,148,306</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>13.58%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-40.46%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>65.52%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$18,547,774</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>57.90%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.95%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$17,395</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>17.54%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>10.72%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$3,138,823</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>-7.30%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-66.65%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$11,887</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>24.69%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>21.31%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$5,465,733</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>23.17%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-8.16%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$2,319,133</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-20.92%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-90.34%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$5,751,117</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1.10%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-21.48%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$3,039,061</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>9.67%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-9.84%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$2,511,808</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>20.81%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-40.32%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$2,690,257</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>20.43%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>14.81%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$1,148,061</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>45.80%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-46.60%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$2,484,384</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>6.47%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-9.64%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>63.41%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$37,541,280</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>14.97%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-17.84%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>63.41%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>51.85%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$30,579,354</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>10.52%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-0.32%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>51.85%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$2,572,303</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>16.70%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-16.00%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$177,499</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>-45.23%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-113.23%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$620,913</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1.13%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-38.52%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$139,154</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>16.56%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-1.92%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$18,290,670</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>10.46%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1.13%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$338,969</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>8.42%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-51.02%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$657,006</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>19.43%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-21.71%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$25,740,152</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1.65%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-63.38%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$248,206</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>17.28%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>0.24%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$2,856,110</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>34.44%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>12.94%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>95.45%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$18,343,238</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>6.44%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-39.22%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>95.45%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$169,654</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>4.29%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1.96%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$1,092,023</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>-0.24%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-65.92%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1825,27 +1825,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1857,27 +1857,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1889,91 +1889,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$643,142,727</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.40%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>194</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$327,486,230</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.92%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-14.83%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>61.13%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$315,656,497</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>14.07%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.33%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>61.13%</t>
         </is>
       </c>
     </row>
@@ -1998,187 +1998,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>51.91%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$18,118,272</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>16.60%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-2.06%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>51.91%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>73.19%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$274,646,683</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>$201,543,740</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.27%</t>
+          <t>10.71%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>-40.12%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>62.03%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$201,543,740</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.71%</t>
+          <t>$22,523,999</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-40.12%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.19%</t>
+          <t>-11.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>77.78%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$22,523,999</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>$125,589,789</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.11%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.03%</t>
+          <t>-67.22%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>64.86%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$125,589,789</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>$274,646,683</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-67.22%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>-7.27%</t>
         </is>
       </c>
     </row>
@@ -2190,27 +2190,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$720,244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>36.05%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.24%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$643,142,727</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
@@ -2267,155 +2267,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>36.11%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$5,447,664</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>20.43%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.94%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>36.11%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>84.95%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$263,046,001</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.59%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-82.30%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.95%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>43.90%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$11,849,547</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>20.14%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.80%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>43.90%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$48,859,334</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>19.40%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2427,219 +2427,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$20,087,060</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2.50%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-0.79%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>56.45%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$55,700,321</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>15.06%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-5.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>56.45%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$7,470,498</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>33.81%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>24.76%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>16.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$11,488,635</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.33%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-23.67%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>67.74%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$739,438</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>23.54%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>13.92%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>27.27%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>69.32%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$31,585,411</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.80%</t>
+          <t>$186,868,818</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.74%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-17.38%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$186,868,818</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>$31,585,411</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-17.38%</t>
+          <t>-0.80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.32%</t>
+          <t>-14.74%</t>
         </is>
       </c>
     </row>
@@ -2651,27 +2651,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>477</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$643,142,727</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-11.31%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
